--- a/data/get_data/recover/recover_data_4protocol_9_20.xlsx
+++ b/data/get_data/recover/recover_data_4protocol_9_20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\workspace\ns-3-allinone\ns3.30\data\get_data\recover\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E837EEB8-5F55-461D-A893-B2263200F713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F32A3F5-DAA3-4A91-A834-571DA0C8C9DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5316,15 +5316,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5352,15 +5352,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>338139</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>242889</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5653,8 +5653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="X73" sqref="X73"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="X68" sqref="X68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/data/get_data/recover/recover_data_4protocol_9_20.xlsx
+++ b/data/get_data/recover/recover_data_4protocol_9_20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\workspace\ns-3-allinone\ns3.30\data\get_data\recover\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F32A3F5-DAA3-4A91-A834-571DA0C8C9DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F72E0-B9B5-4418-926D-450F249EAF23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
   <si>
     <t>shadow10</t>
     <phoneticPr fontId="1"/>
@@ -167,12 +167,27 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>※改訂版</t>
+    <rPh sb="1" eb="4">
+      <t>カイテイバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIGO + JBR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIGO + ORS</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +200,13 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -472,10 +494,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -529,8 +554,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2509,7 +2538,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>)</a:t>
+              <a:t>400)</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US"/>
           </a:p>
@@ -3067,6 +3096,1229 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18455959270151473"/>
+          <c:y val="5.3633295838020248E-2"/>
+          <c:w val="0.78009904183663792"/>
+          <c:h val="0.76716838966557754"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$65:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.79285714285714204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67959183673469303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66020408163265298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6AC7-4520-951D-F577559D695C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$64:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80102040816326503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71632653061224505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70204081632653004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6AC7-4520-951D-F577559D695C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO + JBR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$66:$I$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80224489795917997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71883673469387699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70755102040816298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6AC7-4520-951D-F577559D695C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO + ORS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$67:$I$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.83061224489795904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73265306122448903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72040816326530599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6AC7-4520-951D-F577559D695C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="472295535"/>
+        <c:axId val="472294287"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="472295535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+                  <a:t>Shadowing prameter</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472294287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="472294287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.85000000000000009"/>
+          <c:min val="0.65000000000000013"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+                  <a:t>Packet</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+                  <a:t> delivery ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.783465959414179E-3"/>
+              <c:y val="0.16101193555185164"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472295535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.60209642421118581"/>
+          <c:y val="9.0259593463225846E-2"/>
+          <c:w val="0.38055009935037942"/>
+          <c:h val="0.37007950648504706"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14089409023418334"/>
+          <c:y val="5.2194543297746143E-2"/>
+          <c:w val="0.82479792177582267"/>
+          <c:h val="0.74506160039603586"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$70:$I$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$72:$I$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.912791545189499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.696659378036902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.254733560090699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B885-44B7-83A4-6BD821CBCF78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$70:$I$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$71:$I$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.374809685778999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.507337220602501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.915698898607001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B885-44B7-83A4-6BD821CBCF78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO + JBR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$70:$I$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$73:$I$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20.463852445740098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.601311953352699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.980365241334599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B885-44B7-83A4-6BD821CBCF78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO + ORS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$70:$I$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$74:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20.071448817622201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.352389050858399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.1860868156786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B885-44B7-83A4-6BD821CBCF78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="312461151"/>
+        <c:axId val="312461567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="312461151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+                  <a:t>Shadowing</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+                  <a:t> parameter</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312461567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="312461567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="18"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+                  <a:t>Overhead</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312461151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3227,6 +4479,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4886,6 +6218,1038 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5316,15 +7680,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5352,15 +7716,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>242889</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5380,6 +7744,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{289C9877-F892-4288-8ACB-DE289028F826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FABE82-BCE8-4C83-8D0F-5CDCAD590861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5651,10 +8087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X68"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="X68" sqref="X68"/>
+      <selection activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7264,12 +9700,43 @@
         <v>0.72040816326530599</v>
       </c>
     </row>
+    <row r="61" spans="2:14">
+      <c r="F61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="F62" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="63" spans="2:14">
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>20</v>
+      </c>
+      <c r="I63">
+        <v>30</v>
+      </c>
       <c r="K63" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="2:14">
+      <c r="F64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="29">
+        <v>0.80102040816326503</v>
+      </c>
+      <c r="H64" s="29">
+        <v>0.71632653061224505</v>
+      </c>
+      <c r="I64" s="29">
+        <v>0.70204081632653004</v>
+      </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2">
         <v>10</v>
@@ -7281,7 +9748,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="11:14">
+    <row r="65" spans="6:14">
+      <c r="F65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="29">
+        <v>0.79285714285714204</v>
+      </c>
+      <c r="H65" s="29">
+        <v>0.67959183673469303</v>
+      </c>
+      <c r="I65" s="29">
+        <v>0.66020408163265298</v>
+      </c>
       <c r="K65" s="2" t="s">
         <v>26</v>
       </c>
@@ -7295,7 +9774,19 @@
         <v>21.915698898607001</v>
       </c>
     </row>
-    <row r="66" spans="11:14">
+    <row r="66" spans="6:14">
+      <c r="F66" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="29">
+        <v>0.80224489795917997</v>
+      </c>
+      <c r="H66" s="29">
+        <v>0.71883673469387699</v>
+      </c>
+      <c r="I66" s="29">
+        <v>0.70755102040816298</v>
+      </c>
       <c r="K66" s="2" t="s">
         <v>3</v>
       </c>
@@ -7309,7 +9800,19 @@
         <v>22.254733560090699</v>
       </c>
     </row>
-    <row r="67" spans="11:14">
+    <row r="67" spans="6:14">
+      <c r="F67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="29">
+        <v>0.83061224489795904</v>
+      </c>
+      <c r="H67" s="29">
+        <v>0.73265306122448903</v>
+      </c>
+      <c r="I67" s="29">
+        <v>0.72040816326530599</v>
+      </c>
       <c r="K67" s="2" t="s">
         <v>25</v>
       </c>
@@ -7323,7 +9826,7 @@
         <v>24.980365241334599</v>
       </c>
     </row>
-    <row r="68" spans="11:14">
+    <row r="68" spans="6:14">
       <c r="K68" s="2" t="s">
         <v>27</v>
       </c>
@@ -7334,6 +9837,79 @@
         <v>23.352389050858399</v>
       </c>
       <c r="N68" s="1">
+        <v>24.1860868156786</v>
+      </c>
+    </row>
+    <row r="69" spans="6:14">
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="6:14">
+      <c r="F70" s="2"/>
+      <c r="G70" s="2">
+        <v>10</v>
+      </c>
+      <c r="H70" s="2">
+        <v>20</v>
+      </c>
+      <c r="I70" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="6:14">
+      <c r="F71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="1">
+        <v>19.374809685778999</v>
+      </c>
+      <c r="H71" s="1">
+        <v>21.507337220602501</v>
+      </c>
+      <c r="I71" s="1">
+        <v>21.915698898607001</v>
+      </c>
+    </row>
+    <row r="72" spans="6:14">
+      <c r="F72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="1">
+        <v>18.912791545189499</v>
+      </c>
+      <c r="H72" s="1">
+        <v>21.696659378036902</v>
+      </c>
+      <c r="I72" s="1">
+        <v>22.254733560090699</v>
+      </c>
+    </row>
+    <row r="73" spans="6:14">
+      <c r="F73" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" s="1">
+        <v>20.463852445740098</v>
+      </c>
+      <c r="H73" s="1">
+        <v>23.601311953352699</v>
+      </c>
+      <c r="I73" s="1">
+        <v>24.980365241334599</v>
+      </c>
+    </row>
+    <row r="74" spans="6:14">
+      <c r="F74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="1">
+        <v>20.071448817622201</v>
+      </c>
+      <c r="H74" s="1">
+        <v>23.352389050858399</v>
+      </c>
+      <c r="I74" s="1">
         <v>24.1860868156786</v>
       </c>
     </row>

--- a/data/get_data/recover/recover_data_4protocol_9_20.xlsx
+++ b/data/get_data/recover/recover_data_4protocol_9_20.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\workspace\ns-3-allinone\ns3.30\data\get_data\recover\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F72E0-B9B5-4418-926D-450F249EAF23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E1E067D-3227-4F8E-843C-7C97E6070D07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="4658" windowWidth="2400" windowHeight="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
   <si>
     <t>shadow10</t>
     <phoneticPr fontId="1"/>
@@ -182,6 +183,14 @@
     <t>SIGO + ORS</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ORS-SIGO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JBR-SIGO</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -210,15 +219,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -303,37 +324,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,51 +438,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -500,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -515,46 +460,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3174,7 +3107,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$65:$I$65</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.79285714285714204</c:v>
@@ -3243,7 +3176,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$64:$I$64</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.80102040816326503</c:v>
@@ -3312,7 +3245,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$66:$I$66</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.80224489795917997</c:v>
@@ -3381,7 +3314,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$67:$I$67</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.83061224489795904</c:v>
@@ -7607,16 +7540,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>627968</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>58509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11565</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7679,16 +7612,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>216352</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7715,16 +7648,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>632731</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>183697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>183695</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>221797</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7752,15 +7685,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>349706</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>70758</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7787,16 +7720,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>532038</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>72119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>636814</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>172813</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8087,37 +8020,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="N73" sqref="N73"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.5" thickBot="1">
+    <row r="1" spans="1:24" ht="18" thickBot="1">
       <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="13" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
       <c r="M1" t="s">
         <v>11</v>
       </c>
@@ -8131,11 +8066,11 @@
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="20"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="15"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
@@ -8168,31 +8103,31 @@
       <c r="K2" s="7">
         <v>400</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="16">
         <v>200</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="11">
         <v>300</v>
       </c>
-      <c r="R2" s="22">
+      <c r="R2" s="17">
         <v>400</v>
       </c>
-      <c r="S2" s="21">
+      <c r="S2" s="16">
         <v>200</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="11">
         <v>300</v>
       </c>
-      <c r="U2" s="22">
+      <c r="U2" s="17">
         <v>400</v>
       </c>
-      <c r="V2" s="21">
+      <c r="V2" s="16">
         <v>200</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="11">
         <v>300</v>
       </c>
-      <c r="X2" s="22">
+      <c r="X2" s="17">
         <v>400</v>
       </c>
     </row>
@@ -8201,67 +8136,68 @@
         <v>2</v>
       </c>
       <c r="C3" s="6">
-        <v>0.30612244897959101</v>
+        <v>30.612244897959101</v>
       </c>
       <c r="D3" s="1">
-        <v>0.56020408163265301</v>
+        <v>56.020408163265301</v>
       </c>
       <c r="E3" s="7">
-        <v>0.80102040816326503</v>
+        <v>80.102040816326507</v>
       </c>
       <c r="F3" s="6">
-        <v>0.23367346938775499</v>
+        <v>23.367346938775498</v>
       </c>
       <c r="G3" s="1">
-        <v>0.47448979591836699</v>
+        <v>47.448979591836697</v>
       </c>
       <c r="H3" s="7">
-        <v>0.71632653061224505</v>
+        <v>71.632653061224502</v>
       </c>
       <c r="I3" s="6">
-        <v>0.23061224489795901</v>
+        <v>23.061224489795901</v>
       </c>
       <c r="J3" s="1">
-        <v>0.446938775510203</v>
+        <v>44.6938775510203</v>
       </c>
       <c r="K3" s="7">
-        <v>0.70204081632653004</v>
-      </c>
-      <c r="P3" s="21">
-        <f xml:space="preserve"> C3-C4</f>
-        <v>-6.1224489795919657E-3</v>
-      </c>
-      <c r="Q3" s="16">
-        <f xml:space="preserve"> D3-D4</f>
-        <v>2.4489795918367974E-2</v>
-      </c>
-      <c r="R3" s="22">
-        <f xml:space="preserve"> E3-E4</f>
-        <v>8.1632653061229909E-3</v>
-      </c>
-      <c r="S3" s="21">
-        <f t="shared" ref="S3:X3" si="0" xml:space="preserve"> F3-F4</f>
-        <v>5.1020408163269804E-3</v>
-      </c>
-      <c r="T3" s="16">
+        <v>70.204081632653001</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="P3" s="16">
+        <f t="shared" ref="P3:X3" si="0" xml:space="preserve"> C3-C4</f>
+        <v>-0.61224489795919723</v>
+      </c>
+      <c r="Q3" s="11">
         <f t="shared" si="0"/>
-        <v>3.6734693877550961E-2</v>
-      </c>
-      <c r="U3" s="22">
+        <v>2.448979591836796</v>
+      </c>
+      <c r="R3" s="17">
         <f t="shared" si="0"/>
-        <v>3.6734693877552016E-2</v>
-      </c>
-      <c r="V3" s="21">
+        <v>0.81632653061230087</v>
+      </c>
+      <c r="S3" s="16">
         <f t="shared" si="0"/>
-        <v>1.0204081632653017E-2</v>
-      </c>
-      <c r="W3" s="16">
+        <v>0.51020408163269693</v>
+      </c>
+      <c r="T3" s="11">
         <f t="shared" si="0"/>
-        <v>2.4489795918366974E-2</v>
-      </c>
-      <c r="X3" s="22">
+        <v>3.673469387755091</v>
+      </c>
+      <c r="U3" s="17">
         <f t="shared" si="0"/>
-        <v>4.1836734693877053E-2</v>
+        <v>3.6734693877552047</v>
+      </c>
+      <c r="V3" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0204081632653015</v>
+      </c>
+      <c r="W3" s="11">
+        <f t="shared" si="0"/>
+        <v>2.4489795918366966</v>
+      </c>
+      <c r="X3" s="17">
+        <f t="shared" si="0"/>
+        <v>4.1836734693876991</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -8269,247 +8205,280 @@
         <v>3</v>
       </c>
       <c r="C4" s="6">
-        <v>0.31224489795918298</v>
+        <v>31.224489795918299</v>
       </c>
       <c r="D4" s="1">
-        <v>0.53571428571428503</v>
+        <v>53.571428571428505</v>
       </c>
       <c r="E4" s="7">
-        <v>0.79285714285714204</v>
+        <v>79.285714285714207</v>
       </c>
       <c r="F4" s="6">
-        <v>0.22857142857142801</v>
+        <v>22.857142857142801</v>
       </c>
       <c r="G4" s="1">
-        <v>0.43775510204081602</v>
+        <v>43.775510204081606</v>
       </c>
       <c r="H4" s="7">
-        <v>0.67959183673469303</v>
+        <v>67.959183673469298</v>
       </c>
       <c r="I4" s="6">
-        <v>0.22040816326530599</v>
+        <v>22.040816326530599</v>
       </c>
       <c r="J4" s="1">
-        <v>0.42244897959183603</v>
+        <v>42.244897959183604</v>
       </c>
       <c r="K4" s="7">
-        <v>0.66020408163265298</v>
-      </c>
-      <c r="P4" s="21">
-        <f>C4 - C4</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="16">
-        <f t="shared" ref="Q4:X4" si="1">D4 - D4</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T4" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X4" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>66.020408163265301</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="17"/>
     </row>
     <row r="5" spans="1:24">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6">
-        <v>0.247959183673469</v>
+        <v>34.6938775510203</v>
       </c>
       <c r="D5" s="1">
-        <v>0.47653061224489701</v>
+        <v>57.244897959183703</v>
       </c>
       <c r="E5" s="7">
-        <v>0.76122448979591795</v>
+        <v>83.061224489795904</v>
       </c>
       <c r="F5" s="6">
-        <v>0.187755102040816</v>
+        <v>26.224489795918299</v>
       </c>
       <c r="G5" s="1">
-        <v>0.36836734693877499</v>
+        <v>48.673469387755098</v>
       </c>
       <c r="H5" s="7">
-        <v>0.64183673469387703</v>
+        <v>73.265306122448905</v>
       </c>
       <c r="I5" s="6">
-        <v>0.17653061224489699</v>
+        <v>26.122448979591802</v>
       </c>
       <c r="J5" s="1">
-        <v>0.34183673469387699</v>
+        <v>46.224489795918302</v>
       </c>
       <c r="K5" s="7">
-        <v>0.62755102040816302</v>
-      </c>
-      <c r="P5" s="21">
-        <f>C5-C4</f>
-        <v>-6.4285714285713974E-2</v>
-      </c>
-      <c r="Q5" s="16">
-        <f t="shared" ref="Q5:X5" si="2">D5-D4</f>
-        <v>-5.9183673469388021E-2</v>
-      </c>
-      <c r="R5" s="22">
-        <f t="shared" si="2"/>
-        <v>-3.1632653061224092E-2</v>
-      </c>
-      <c r="S5" s="21">
-        <f t="shared" si="2"/>
-        <v>-4.0816326530612013E-2</v>
-      </c>
-      <c r="T5" s="16">
-        <f t="shared" si="2"/>
-        <v>-6.9387755102041038E-2</v>
-      </c>
-      <c r="U5" s="22">
-        <f t="shared" si="2"/>
-        <v>-3.7755102040816002E-2</v>
-      </c>
-      <c r="V5" s="21">
-        <f t="shared" si="2"/>
-        <v>-4.3877551020408995E-2</v>
-      </c>
-      <c r="W5" s="16">
-        <f t="shared" si="2"/>
-        <v>-8.061224489795904E-2</v>
-      </c>
-      <c r="X5" s="22">
-        <f t="shared" si="2"/>
-        <v>-3.2653061224489965E-2</v>
+        <v>72.040816326530603</v>
+      </c>
+      <c r="P5" s="16">
+        <f t="shared" ref="P5:X5" si="1">C4 - C4</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6">
-        <v>0.34693877551020302</v>
+        <v>24.7959183673469</v>
       </c>
       <c r="D6" s="1">
-        <v>0.57244897959183705</v>
+        <v>47.653061224489704</v>
       </c>
       <c r="E6" s="7">
-        <v>0.83061224489795904</v>
+        <v>76.122448979591795</v>
       </c>
       <c r="F6" s="6">
-        <v>0.26224489795918299</v>
+        <v>18.775510204081598</v>
       </c>
       <c r="G6" s="1">
-        <v>0.48673469387755097</v>
+        <v>36.836734693877496</v>
       </c>
       <c r="H6" s="7">
-        <v>0.73265306122448903</v>
+        <v>64.183673469387699</v>
       </c>
       <c r="I6" s="6">
-        <v>0.261224489795918</v>
+        <v>17.653061224489701</v>
       </c>
       <c r="J6" s="1">
-        <v>0.462244897959183</v>
+        <v>34.183673469387699</v>
       </c>
       <c r="K6" s="7">
-        <v>0.72040816326530599</v>
-      </c>
-      <c r="P6" s="21">
-        <f>C6-C4</f>
-        <v>3.4693877551020047E-2</v>
-      </c>
-      <c r="Q6" s="16">
-        <f t="shared" ref="Q6:X6" si="3">D6-D4</f>
-        <v>3.6734693877552016E-2</v>
-      </c>
-      <c r="R6" s="22">
-        <f t="shared" si="3"/>
-        <v>3.7755102040817001E-2</v>
-      </c>
-      <c r="S6" s="21">
-        <f t="shared" si="3"/>
-        <v>3.3673469387754978E-2</v>
-      </c>
-      <c r="T6" s="16">
-        <f t="shared" si="3"/>
-        <v>4.8979591836734948E-2</v>
-      </c>
-      <c r="U6" s="22">
-        <f t="shared" si="3"/>
-        <v>5.3061224489795999E-2</v>
-      </c>
-      <c r="V6" s="21">
-        <f t="shared" si="3"/>
-        <v>4.0816326530612013E-2</v>
-      </c>
-      <c r="W6" s="16">
-        <f t="shared" si="3"/>
-        <v>3.9795918367346972E-2</v>
-      </c>
-      <c r="X6" s="22">
-        <f t="shared" si="3"/>
-        <v>6.0204081632653006E-2</v>
+        <v>62.755102040816304</v>
+      </c>
+      <c r="P6" s="16">
+        <f t="shared" ref="P6:X6" si="2">C6-C4</f>
+        <v>-6.4285714285713986</v>
+      </c>
+      <c r="Q6" s="11">
+        <f t="shared" si="2"/>
+        <v>-5.9183673469388012</v>
+      </c>
+      <c r="R6" s="17">
+        <f t="shared" si="2"/>
+        <v>-3.1632653061224119</v>
+      </c>
+      <c r="S6" s="16">
+        <f t="shared" si="2"/>
+        <v>-4.0816326530612024</v>
+      </c>
+      <c r="T6" s="11">
+        <f t="shared" si="2"/>
+        <v>-6.9387755102041098</v>
+      </c>
+      <c r="U6" s="17">
+        <f t="shared" si="2"/>
+        <v>-3.7755102040815984</v>
+      </c>
+      <c r="V6" s="16">
+        <f t="shared" si="2"/>
+        <v>-4.3877551020408987</v>
+      </c>
+      <c r="W6" s="11">
+        <f t="shared" si="2"/>
+        <v>-8.0612244897959044</v>
+      </c>
+      <c r="X6" s="17">
+        <f t="shared" si="2"/>
+        <v>-3.2653061224489974</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="C7" s="8"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="9"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="24"/>
+      <c r="B7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="23">
+        <f t="shared" ref="C7:K7" si="3">C5-C3</f>
+        <v>4.0816326530611988</v>
+      </c>
+      <c r="D7" s="23">
+        <f t="shared" si="3"/>
+        <v>1.2244897959184016</v>
+      </c>
+      <c r="E7" s="23">
+        <f t="shared" si="3"/>
+        <v>2.959183673469397</v>
+      </c>
+      <c r="F7" s="23">
+        <f t="shared" si="3"/>
+        <v>2.8571428571428008</v>
+      </c>
+      <c r="G7" s="23">
+        <f t="shared" si="3"/>
+        <v>1.2244897959184016</v>
+      </c>
+      <c r="H7" s="23">
+        <f t="shared" si="3"/>
+        <v>1.6326530612244028</v>
+      </c>
+      <c r="I7" s="23">
+        <f t="shared" si="3"/>
+        <v>3.0612244897959009</v>
+      </c>
+      <c r="J7" s="23">
+        <f t="shared" si="3"/>
+        <v>1.530612244898002</v>
+      </c>
+      <c r="K7" s="23">
+        <f t="shared" si="3"/>
+        <v>1.8367346938776024</v>
+      </c>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="19"/>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="9"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="24"/>
+      <c r="B8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="24">
+        <f t="shared" ref="C8:K8" si="4">C6-C3</f>
+        <v>-5.8163265306122014</v>
+      </c>
+      <c r="D8" s="24">
+        <f t="shared" si="4"/>
+        <v>-8.3673469387755972</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" si="4"/>
+        <v>-3.9795918367347127</v>
+      </c>
+      <c r="F8" s="24">
+        <f t="shared" si="4"/>
+        <v>-4.5918367346938993</v>
+      </c>
+      <c r="G8" s="24">
+        <f t="shared" si="4"/>
+        <v>-10.612244897959201</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="4"/>
+        <v>-7.4489795918368031</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="4"/>
+        <v>-5.4081632653062002</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="4"/>
+        <v>-10.510204081632601</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="4"/>
+        <v>-7.4489795918366966</v>
+      </c>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="19"/>
     </row>
     <row r="9" spans="1:24">
       <c r="B9" t="s">
@@ -8542,41 +8511,41 @@
       <c r="K9" s="7">
         <v>3.1401227968091999E-2</v>
       </c>
-      <c r="P9" s="21">
-        <f xml:space="preserve"> C9-C10</f>
+      <c r="P9" s="16">
+        <f t="shared" ref="P9:X9" si="5" xml:space="preserve"> C9-C10</f>
         <v>1.6564352040816001E-3</v>
       </c>
-      <c r="Q9" s="16">
-        <f xml:space="preserve"> D9-D10</f>
+      <c r="Q9" s="11">
+        <f t="shared" si="5"/>
         <v>-1.2182254049238998E-3</v>
       </c>
-      <c r="R9" s="22">
-        <f xml:space="preserve"> E9-E10</f>
+      <c r="R9" s="17">
+        <f t="shared" si="5"/>
         <v>1.4902032920310997E-3</v>
       </c>
-      <c r="S9" s="21">
-        <f t="shared" ref="S9" si="4" xml:space="preserve"> F9-F10</f>
+      <c r="S9" s="16">
+        <f t="shared" si="5"/>
         <v>-1.9877680272109011E-3</v>
       </c>
-      <c r="T9" s="16">
-        <f t="shared" ref="T9" si="5" xml:space="preserve"> G9-G10</f>
+      <c r="T9" s="11">
+        <f t="shared" si="5"/>
         <v>-6.4923277453839828E-4</v>
       </c>
-      <c r="U9" s="22">
-        <f t="shared" ref="U9" si="6" xml:space="preserve"> H9-H10</f>
+      <c r="U9" s="17">
+        <f t="shared" si="5"/>
         <v>1.6828230361192013E-3</v>
       </c>
-      <c r="V9" s="21">
-        <f t="shared" ref="V9" si="7" xml:space="preserve"> I9-I10</f>
+      <c r="V9" s="16">
+        <f t="shared" si="5"/>
         <v>-1.7370795918368008E-3</v>
       </c>
-      <c r="W9" s="16">
-        <f t="shared" ref="W9" si="8" xml:space="preserve"> J9-J10</f>
+      <c r="W9" s="11">
+        <f t="shared" si="5"/>
         <v>-7.4797808552000064E-4</v>
       </c>
-      <c r="X9" s="22">
-        <f t="shared" ref="X9" si="9" xml:space="preserve"> K9-K10</f>
-        <v>1.6361612487852985E-3</v>
+      <c r="X9" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -8608,223 +8577,256 @@
         <v>2.82109479834791E-2</v>
       </c>
       <c r="K10" s="7">
-        <v>2.9765066719306701E-2</v>
-      </c>
-      <c r="P10" s="21">
-        <f>C10 - C10</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="16">
-        <f t="shared" ref="Q10" si="10">D10 - D10</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="22">
-        <f t="shared" ref="R10" si="11">E10 - E10</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="21">
-        <f t="shared" ref="S10" si="12">F10 - F10</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="16">
-        <f t="shared" ref="T10" si="13">G10 - G10</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="22">
-        <f t="shared" ref="U10" si="14">H10 - H10</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="21">
-        <f t="shared" ref="V10" si="15">I10 - I10</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="16">
-        <f t="shared" ref="W10" si="16">J10 - J10</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="22">
-        <f t="shared" ref="X10" si="17">K10 - K10</f>
-        <v>0</v>
-      </c>
+        <v>3.1401227968091999E-2</v>
+      </c>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="17"/>
     </row>
     <row r="11" spans="1:24">
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="6">
-        <v>2.3575831292516999E-2</v>
+        <v>2.5196025728862901E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>2.91170277696793E-2</v>
+        <v>2.91435721614836E-2</v>
       </c>
       <c r="E11" s="7">
-        <v>3.0521977680595998E-2</v>
+        <v>3.0136873028020698E-2</v>
       </c>
       <c r="F11" s="6">
-        <v>2.21663603741496E-2</v>
+        <v>2.41832321428571E-2</v>
       </c>
       <c r="G11" s="1">
-        <v>2.9289712755102001E-2</v>
+        <v>2.8180936236637501E-2</v>
       </c>
       <c r="H11" s="7">
-        <v>3.0621490678652399E-2</v>
+        <v>3.0068909855847099E-2</v>
       </c>
       <c r="I11" s="6">
-        <v>2.04668969387755E-2</v>
+        <v>2.38729775510204E-2</v>
       </c>
       <c r="J11" s="1">
-        <v>2.8689339455782299E-2</v>
+        <v>2.7204020274538301E-2</v>
       </c>
       <c r="K11" s="7">
-        <v>3.07001531867509E-2</v>
-      </c>
-      <c r="P11" s="21">
-        <f>C11-C10</f>
-        <v>-7.8288503401360149E-4</v>
-      </c>
-      <c r="Q11" s="16">
-        <f t="shared" ref="Q11" si="18">D11-D10</f>
-        <v>-6.3817852688690183E-4</v>
-      </c>
-      <c r="R11" s="22">
-        <f t="shared" ref="R11" si="19">E11-E10</f>
-        <v>1.065108033689699E-3</v>
-      </c>
-      <c r="S11" s="21">
-        <f t="shared" ref="S11" si="20">F11-F10</f>
-        <v>-2.912029931972801E-3</v>
-      </c>
-      <c r="T11" s="16">
-        <f t="shared" ref="T11" si="21">G11-G10</f>
-        <v>4.0149033041790225E-4</v>
-      </c>
-      <c r="U11" s="22">
-        <f t="shared" ref="U11" si="22">H11-H10</f>
-        <v>1.0169643181081982E-3</v>
-      </c>
-      <c r="V11" s="21">
-        <f t="shared" ref="V11" si="23">I11-I10</f>
-        <v>-3.9922306122449E-3</v>
-      </c>
-      <c r="W11" s="16">
-        <f t="shared" ref="W11" si="24">J11-J10</f>
-        <v>4.7839147230319817E-4</v>
-      </c>
-      <c r="X11" s="22">
-        <f t="shared" ref="X11" si="25">K11-K10</f>
-        <v>9.3508646744419957E-4</v>
+        <v>3.1401227968091999E-2</v>
+      </c>
+      <c r="P11" s="16">
+        <f t="shared" ref="P11:X11" si="6">C10 - C10</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="6">
-        <v>2.5196025728862901E-2</v>
+        <v>2.3575831292516999E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>2.91435721614836E-2</v>
+        <v>2.91170277696793E-2</v>
       </c>
       <c r="E12" s="7">
-        <v>3.0136873028020698E-2</v>
+        <v>3.0521977680595998E-2</v>
       </c>
       <c r="F12" s="6">
-        <v>2.41832321428571E-2</v>
+        <v>2.21663603741496E-2</v>
       </c>
       <c r="G12" s="1">
-        <v>2.8180936236637501E-2</v>
+        <v>2.9289712755102001E-2</v>
       </c>
       <c r="H12" s="7">
-        <v>3.0068909855847099E-2</v>
+        <v>3.0621490678652399E-2</v>
       </c>
       <c r="I12" s="6">
-        <v>2.38729775510204E-2</v>
+        <v>2.04668969387755E-2</v>
       </c>
       <c r="J12" s="1">
-        <v>2.7204020274538301E-2</v>
+        <v>2.8689339455782299E-2</v>
       </c>
       <c r="K12" s="7">
-        <v>3.0310294744088102E-2</v>
-      </c>
-      <c r="P12" s="21">
-        <f>C12-C10</f>
-        <v>8.3730940233230078E-4</v>
-      </c>
-      <c r="Q12" s="16">
-        <f t="shared" ref="Q12" si="26">D12-D10</f>
-        <v>-6.1163413508260114E-4</v>
-      </c>
-      <c r="R12" s="22">
-        <f t="shared" ref="R12" si="27">E12-E10</f>
-        <v>6.8000338111439892E-4</v>
-      </c>
-      <c r="S12" s="21">
-        <f t="shared" ref="S12" si="28">F12-F10</f>
-        <v>-8.9515816326530065E-4</v>
-      </c>
-      <c r="T12" s="16">
-        <f t="shared" ref="T12" si="29">G12-G10</f>
-        <v>-7.0728618804659707E-4</v>
-      </c>
-      <c r="U12" s="22">
-        <f t="shared" ref="U12" si="30">H12-H10</f>
-        <v>4.6438349530289816E-4</v>
-      </c>
-      <c r="V12" s="21">
-        <f t="shared" ref="V12" si="31">I12-I10</f>
-        <v>-5.8615000000000056E-4</v>
-      </c>
-      <c r="W12" s="16">
-        <f t="shared" ref="W12" si="32">J12-J10</f>
-        <v>-1.0069277089407996E-3</v>
-      </c>
-      <c r="X12" s="22">
-        <f t="shared" ref="X12" si="33">K12-K10</f>
-        <v>5.4522802478140092E-4</v>
+        <v>3.1401227968091999E-2</v>
+      </c>
+      <c r="P12" s="16">
+        <f t="shared" ref="P12:X12" si="7">C12-C10</f>
+        <v>-7.8288503401360149E-4</v>
+      </c>
+      <c r="Q12" s="11">
+        <f t="shared" si="7"/>
+        <v>-6.3817852688690183E-4</v>
+      </c>
+      <c r="R12" s="17">
+        <f t="shared" si="7"/>
+        <v>1.065108033689699E-3</v>
+      </c>
+      <c r="S12" s="16">
+        <f t="shared" si="7"/>
+        <v>-2.912029931972801E-3</v>
+      </c>
+      <c r="T12" s="11">
+        <f t="shared" si="7"/>
+        <v>4.0149033041790225E-4</v>
+      </c>
+      <c r="U12" s="17">
+        <f t="shared" si="7"/>
+        <v>1.0169643181081982E-3</v>
+      </c>
+      <c r="V12" s="16">
+        <f t="shared" si="7"/>
+        <v>-3.9922306122449E-3</v>
+      </c>
+      <c r="W12" s="11">
+        <f t="shared" si="7"/>
+        <v>4.7839147230319817E-4</v>
+      </c>
+      <c r="X12" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="C13" s="8"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="9"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="24"/>
+      <c r="B13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="23">
+        <f t="shared" ref="C13:K13" si="8">C11-C9</f>
+        <v>-8.191258017492993E-4</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="8"/>
+        <v>6.0659126984129869E-4</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" si="8"/>
+        <v>-8.1019991091670074E-4</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="8"/>
+        <v>1.0926098639456004E-3</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="8"/>
+        <v>-5.8053413508198787E-5</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="8"/>
+        <v>-1.2184395408163032E-3</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="8"/>
+        <v>1.1509295918368002E-3</v>
+      </c>
+      <c r="J13" s="23">
+        <f t="shared" si="8"/>
+        <v>-2.58949623420799E-4</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="19"/>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="9"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="24"/>
+      <c r="B14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="24">
+        <f t="shared" ref="C14:K14" si="9">C12-C9</f>
+        <v>-2.4393202380952016E-3</v>
+      </c>
+      <c r="D14" s="24">
+        <f t="shared" si="9"/>
+        <v>5.80046878036998E-4</v>
+      </c>
+      <c r="E14" s="24">
+        <f t="shared" si="9"/>
+        <v>-4.2509525834140069E-4</v>
+      </c>
+      <c r="F14" s="24">
+        <f t="shared" si="9"/>
+        <v>-9.2426190476189996E-4</v>
+      </c>
+      <c r="G14" s="24">
+        <f t="shared" si="9"/>
+        <v>1.0507231049563005E-3</v>
+      </c>
+      <c r="H14" s="24">
+        <f t="shared" si="9"/>
+        <v>-6.6585871801100316E-4</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="9"/>
+        <v>-2.2551510204080992E-3</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" si="9"/>
+        <v>1.2263695578231988E-3</v>
+      </c>
+      <c r="K14" s="24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="19"/>
     </row>
     <row r="15" spans="1:24">
       <c r="B15" t="s">
@@ -8857,40 +8859,40 @@
       <c r="K15" s="7">
         <v>21.915698898607001</v>
       </c>
-      <c r="P15" s="21">
-        <f xml:space="preserve"> C15-C16</f>
+      <c r="P15" s="16">
+        <f t="shared" ref="P15:X15" si="10" xml:space="preserve"> C15-C16</f>
         <v>3.5904033041787997</v>
       </c>
-      <c r="Q15" s="16">
-        <f xml:space="preserve"> D15-D16</f>
+      <c r="Q15" s="11">
+        <f t="shared" si="10"/>
         <v>-1.3020853579527021</v>
       </c>
-      <c r="R15" s="22">
-        <f xml:space="preserve"> E15-E16</f>
+      <c r="R15" s="17">
+        <f t="shared" si="10"/>
         <v>0.46201814058949964</v>
       </c>
-      <c r="S15" s="21">
-        <f t="shared" ref="S15" si="34" xml:space="preserve"> F15-F16</f>
+      <c r="S15" s="16">
+        <f t="shared" si="10"/>
         <v>2.5824829931972957</v>
       </c>
-      <c r="T15" s="16">
-        <f t="shared" ref="T15" si="35" xml:space="preserve"> G15-G16</f>
+      <c r="T15" s="11">
+        <f t="shared" si="10"/>
         <v>-2.4294460641399986</v>
       </c>
-      <c r="U15" s="22">
-        <f t="shared" ref="U15" si="36" xml:space="preserve"> H15-H16</f>
+      <c r="U15" s="17">
+        <f t="shared" si="10"/>
         <v>-0.1893221574344004</v>
       </c>
-      <c r="V15" s="21">
-        <f t="shared" ref="V15" si="37" xml:space="preserve"> I15-I16</f>
+      <c r="V15" s="16">
+        <f t="shared" si="10"/>
         <v>1.705782312925102</v>
       </c>
-      <c r="W15" s="16">
-        <f t="shared" ref="W15" si="38" xml:space="preserve"> J15-J16</f>
+      <c r="W15" s="11">
+        <f t="shared" si="10"/>
         <v>-2.1895043731778969</v>
       </c>
-      <c r="X15" s="22">
-        <f t="shared" ref="X15" si="39" xml:space="preserve"> K15-K16</f>
+      <c r="X15" s="17">
+        <f t="shared" si="10"/>
         <v>-0.33903466148369787</v>
       </c>
     </row>
@@ -8925,177 +8927,232 @@
       <c r="K16" s="7">
         <v>22.254733560090699</v>
       </c>
-      <c r="P16" s="21">
-        <f>C16 - C16</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="16">
-        <f t="shared" ref="Q16" si="40">D16 - D16</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="22">
-        <f t="shared" ref="R16" si="41">E16 - E16</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="21">
-        <f t="shared" ref="S16" si="42">F16 - F16</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="16">
-        <f t="shared" ref="T16" si="43">G16 - G16</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="22">
-        <f t="shared" ref="U16" si="44">H16 - H16</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="21">
-        <f t="shared" ref="V16" si="45">I16 - I16</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="16">
-        <f t="shared" ref="W16" si="46">J16 - J16</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="22">
-        <f t="shared" ref="X16" si="47">K16 - K16</f>
-        <v>0</v>
-      </c>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="17"/>
     </row>
     <row r="17" spans="2:24">
       <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6">
+        <v>36.720456754130197</v>
+      </c>
+      <c r="D17" s="1">
+        <v>27.771084386135399</v>
+      </c>
+      <c r="E17" s="7">
+        <v>20.071448817622201</v>
+      </c>
+      <c r="F17" s="6">
+        <v>46.331462585033997</v>
+      </c>
+      <c r="G17" s="1">
+        <v>30.6395529640427</v>
+      </c>
+      <c r="H17" s="7">
+        <v>23.352389050858399</v>
+      </c>
+      <c r="I17" s="6">
+        <v>48.236564625850299</v>
+      </c>
+      <c r="J17" s="1">
+        <v>32.933272594752097</v>
+      </c>
+      <c r="K17" s="7">
+        <v>24.1860868156786</v>
+      </c>
+      <c r="P17" s="16">
+        <f t="shared" ref="P17:X17" si="11">C16 - C16</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C18" s="6">
         <v>44.819217687074797</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>30.195201652089398</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E18" s="7">
         <v>21.463852445740098</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <v>52.823469387755097</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G18" s="1">
         <v>37.682482993197198</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H18" s="7">
         <v>24.2013119533527</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I18" s="6">
         <v>54.6100340136054</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J18" s="1">
         <v>40.157482993197199</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K18" s="7">
         <v>24.980365241334599</v>
       </c>
-      <c r="P17" s="21">
-        <f>C17-C16</f>
+      <c r="P18" s="16">
+        <f t="shared" ref="P18:X18" si="12">C18-C16</f>
         <v>13.368464528668596</v>
       </c>
-      <c r="Q17" s="16">
-        <f t="shared" ref="Q17" si="48">D17-D16</f>
+      <c r="Q18" s="11">
+        <f t="shared" si="12"/>
         <v>4.3879049238743981</v>
       </c>
-      <c r="R17" s="22">
-        <f t="shared" ref="R17" si="49">E17-E16</f>
+      <c r="R18" s="17">
+        <f t="shared" si="12"/>
         <v>2.5510609005505991</v>
       </c>
-      <c r="S17" s="21">
-        <f t="shared" ref="S17" si="50">F17-F16</f>
+      <c r="S18" s="16">
+        <f t="shared" si="12"/>
         <v>11.911904761904793</v>
       </c>
-      <c r="T17" s="16">
-        <f t="shared" ref="T17" si="51">G17-G16</f>
+      <c r="T18" s="11">
+        <f t="shared" si="12"/>
         <v>8.0537172011660978</v>
       </c>
-      <c r="U17" s="22">
-        <f t="shared" ref="U17" si="52">H17-H16</f>
+      <c r="U18" s="17">
+        <f t="shared" si="12"/>
         <v>2.5046525753157987</v>
       </c>
-      <c r="V17" s="21">
-        <f t="shared" ref="V17" si="53">I17-I16</f>
+      <c r="V18" s="16">
+        <f t="shared" si="12"/>
         <v>12.289455782312899</v>
       </c>
-      <c r="W17" s="16">
-        <f t="shared" ref="W17" si="54">J17-J16</f>
+      <c r="W18" s="11">
+        <f t="shared" si="12"/>
         <v>9.3473275024295006</v>
       </c>
-      <c r="X17" s="22">
-        <f t="shared" ref="X17" si="55">K17-K16</f>
+      <c r="X18" s="17">
+        <f t="shared" si="12"/>
         <v>2.7256316812439003</v>
       </c>
     </row>
-    <row r="18" spans="2:24" ht="19.5" thickBot="1">
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="10">
-        <v>36.720456754130197</v>
-      </c>
-      <c r="D18" s="11">
-        <v>27.771084386135399</v>
-      </c>
-      <c r="E18" s="12">
-        <v>20.071448817622201</v>
-      </c>
-      <c r="F18" s="10">
-        <v>46.331462585033997</v>
-      </c>
-      <c r="G18" s="11">
-        <v>30.6395529640427</v>
-      </c>
-      <c r="H18" s="12">
-        <v>23.352389050858399</v>
-      </c>
-      <c r="I18" s="10">
-        <v>48.236564625850299</v>
-      </c>
-      <c r="J18" s="11">
-        <v>32.933272594752097</v>
-      </c>
-      <c r="K18" s="12">
-        <v>24.1860868156786</v>
-      </c>
-      <c r="P18" s="25">
-        <f>C18-C16</f>
-        <v>5.2697035957239962</v>
-      </c>
-      <c r="Q18" s="26">
-        <f t="shared" ref="Q18" si="56">D18-D16</f>
-        <v>1.963787657920399</v>
-      </c>
-      <c r="R18" s="27">
-        <f t="shared" ref="R18" si="57">E18-E16</f>
-        <v>1.158657272432702</v>
-      </c>
-      <c r="S18" s="25">
-        <f t="shared" ref="S18" si="58">F18-F16</f>
-        <v>5.4198979591836931</v>
-      </c>
-      <c r="T18" s="26">
-        <f t="shared" ref="T18" si="59">G18-G16</f>
-        <v>1.0107871720116002</v>
-      </c>
-      <c r="U18" s="27">
-        <f t="shared" ref="U18" si="60">H18-H16</f>
-        <v>1.6557296728214972</v>
-      </c>
-      <c r="V18" s="25">
-        <f t="shared" ref="V18" si="61">I18-I16</f>
-        <v>5.9159863945577982</v>
-      </c>
-      <c r="W18" s="26">
-        <f t="shared" ref="W18" si="62">J18-J16</f>
-        <v>2.1231171039843986</v>
-      </c>
-      <c r="X18" s="27">
-        <f t="shared" ref="X18" si="63">K18-K16</f>
-        <v>1.9313532555879007</v>
+    <row r="19" spans="2:24">
+      <c r="B19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="23">
+        <f t="shared" ref="C19:K19" si="13">C17-C15</f>
+        <v>1.6793002915451964</v>
+      </c>
+      <c r="D19" s="23">
+        <f t="shared" si="13"/>
+        <v>3.2658730158731011</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" si="13"/>
+        <v>0.69663913184320236</v>
+      </c>
+      <c r="F19" s="23">
+        <f t="shared" si="13"/>
+        <v>2.8374149659863974</v>
+      </c>
+      <c r="G19" s="23">
+        <f t="shared" si="13"/>
+        <v>3.4402332361515988</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="13"/>
+        <v>1.8450518302558976</v>
+      </c>
+      <c r="I19" s="23">
+        <f t="shared" si="13"/>
+        <v>4.2102040816326962</v>
+      </c>
+      <c r="J19" s="23">
+        <f t="shared" si="13"/>
+        <v>4.3126214771622955</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="13"/>
+        <v>2.2703879170715986</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24">
+      <c r="B20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="24">
+        <f t="shared" ref="C20:K20" si="14">C18-C15</f>
+        <v>9.7780612244897966</v>
+      </c>
+      <c r="D20" s="24">
+        <f t="shared" si="14"/>
+        <v>5.6899902818271002</v>
+      </c>
+      <c r="E20" s="24">
+        <f t="shared" si="14"/>
+        <v>2.0890427599610994</v>
+      </c>
+      <c r="F20" s="24">
+        <f t="shared" si="14"/>
+        <v>9.3294217687074976</v>
+      </c>
+      <c r="G20" s="24">
+        <f t="shared" si="14"/>
+        <v>10.483163265306096</v>
+      </c>
+      <c r="H20" s="24">
+        <f t="shared" si="14"/>
+        <v>2.6939747327501991</v>
+      </c>
+      <c r="I20" s="24">
+        <f t="shared" si="14"/>
+        <v>10.583673469387797</v>
+      </c>
+      <c r="J20" s="24">
+        <f t="shared" si="14"/>
+        <v>11.536831875607398</v>
+      </c>
+      <c r="K20" s="24">
+        <f t="shared" si="14"/>
+        <v>3.0646663427275982</v>
       </c>
     </row>
     <row r="23" spans="2:24">
@@ -9103,7 +9160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="19.5" thickBot="1">
+    <row r="24" spans="2:24" ht="18" thickBot="1">
       <c r="C24">
         <v>200</v>
       </c>
@@ -9114,7 +9171,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="2:24" ht="19.5" thickBot="1">
+    <row r="25" spans="2:24" ht="18" thickBot="1">
       <c r="B25" t="s">
         <v>12</v>
       </c>
@@ -9127,7 +9184,7 @@
       <c r="E25">
         <v>8.1632653061229909E-3</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="2:24">
       <c r="B26" t="s">
@@ -9728,13 +9785,13 @@
       <c r="F64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G64" s="29">
+      <c r="G64" s="21">
         <v>0.80102040816326503</v>
       </c>
-      <c r="H64" s="29">
+      <c r="H64" s="21">
         <v>0.71632653061224505</v>
       </c>
-      <c r="I64" s="29">
+      <c r="I64" s="21">
         <v>0.70204081632653004</v>
       </c>
       <c r="K64" s="2"/>
@@ -9752,13 +9809,13 @@
       <c r="F65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="29">
+      <c r="G65" s="21">
         <v>0.79285714285714204</v>
       </c>
-      <c r="H65" s="29">
+      <c r="H65" s="21">
         <v>0.67959183673469303</v>
       </c>
-      <c r="I65" s="29">
+      <c r="I65" s="21">
         <v>0.66020408163265298</v>
       </c>
       <c r="K65" s="2" t="s">
@@ -9778,13 +9835,13 @@
       <c r="F66" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="29">
+      <c r="G66" s="21">
         <v>0.80224489795917997</v>
       </c>
-      <c r="H66" s="29">
+      <c r="H66" s="21">
         <v>0.71883673469387699</v>
       </c>
-      <c r="I66" s="29">
+      <c r="I66" s="21">
         <v>0.70755102040816298</v>
       </c>
       <c r="K66" s="2" t="s">
@@ -9804,13 +9861,13 @@
       <c r="F67" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G67" s="29">
+      <c r="G67" s="21">
         <v>0.83061224489795904</v>
       </c>
-      <c r="H67" s="29">
+      <c r="H67" s="21">
         <v>0.73265306122448903</v>
       </c>
-      <c r="I67" s="29">
+      <c r="I67" s="21">
         <v>0.72040816326530599</v>
       </c>
       <c r="K67" s="2" t="s">
@@ -9911,6 +9968,17 @@
       </c>
       <c r="I74" s="1">
         <v>24.1860868156786</v>
+      </c>
+    </row>
+    <row r="77" spans="6:14">
+      <c r="G77" s="22">
+        <v>0.83061224489795904</v>
+      </c>
+      <c r="H77" s="22">
+        <v>0.73265306122448903</v>
+      </c>
+      <c r="I77" s="22">
+        <v>0.72040816326530599</v>
       </c>
     </row>
   </sheetData>
